--- a/settings/table_default.xlsx
+++ b/settings/table_default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\PycharmProjects\RSKR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\PycharmProjects\BG_RSKR\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0BCFC1-73BC-4D27-B082-FD3E13158F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408DE897-D5F0-4AD9-A2A8-905045B92F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="0" windowWidth="19310" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -220,28 +220,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -271,6 +256,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,60 +360,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,11 +404,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,23 +696,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,420 +738,406 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+    <row r="4" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="6" t="s">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="6" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16" t="s">
+    <row r="16" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>51</v>
+    <row r="19" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
+    <row r="20" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
+    <row r="21" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="22">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/settings/table_default.xlsx
+++ b/settings/table_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\PycharmProjects\BG_RSKR\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408DE897-D5F0-4AD9-A2A8-905045B92F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994DFD20-D997-48CA-BBED-D7FF905BA174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -386,35 +386,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,16 +699,17 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="123.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,17 +739,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -760,11 +761,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
+    <row r="3" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
@@ -775,16 +776,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -797,10 +798,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
@@ -811,10 +812,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
@@ -824,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -847,16 +848,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -869,10 +870,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
@@ -882,17 +883,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:8" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -905,10 +906,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
@@ -919,16 +920,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -941,10 +942,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
@@ -955,10 +956,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
@@ -968,7 +969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -990,11 +991,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1013,8 +1014,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="3" t="s">
@@ -1116,12 +1117,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1130,14 +1133,12 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
